--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cd9-L1cam.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cd9-L1cam.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>67.7684089398664</v>
+        <v>69.292158</v>
       </c>
       <c r="H2">
-        <v>67.7684089398664</v>
+        <v>138.584316</v>
       </c>
       <c r="I2">
-        <v>0.2356999380470773</v>
+        <v>0.2302847784735656</v>
       </c>
       <c r="J2">
-        <v>0.2356999380470773</v>
+        <v>0.1742377818809482</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="N2">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="O2">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="P2">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="Q2">
-        <v>303.6947228421486</v>
+        <v>311.491740251562</v>
       </c>
       <c r="R2">
-        <v>303.6947228421486</v>
+        <v>1245.966961006248</v>
       </c>
       <c r="S2">
-        <v>0.03241511352565946</v>
+        <v>0.02934073058577169</v>
       </c>
       <c r="T2">
-        <v>0.03241511352565946</v>
+        <v>0.0169168831029551</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>67.7684089398664</v>
+        <v>69.292158</v>
       </c>
       <c r="H3">
-        <v>67.7684089398664</v>
+        <v>138.584316</v>
       </c>
       <c r="I3">
-        <v>0.2356999380470773</v>
+        <v>0.2302847784735656</v>
       </c>
       <c r="J3">
-        <v>0.2356999380470773</v>
+        <v>0.1742377818809482</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="N3">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="O3">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="P3">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="Q3">
-        <v>28.23654024966061</v>
+        <v>32.088944298554</v>
       </c>
       <c r="R3">
-        <v>28.23654024966061</v>
+        <v>192.533665791324</v>
       </c>
       <c r="S3">
-        <v>0.003013851044887408</v>
+        <v>0.00302259401384235</v>
       </c>
       <c r="T3">
-        <v>0.003013851044887408</v>
+        <v>0.002614089794921072</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>67.7684089398664</v>
+        <v>69.292158</v>
       </c>
       <c r="H4">
-        <v>67.7684089398664</v>
+        <v>138.584316</v>
       </c>
       <c r="I4">
-        <v>0.2356999380470773</v>
+        <v>0.2302847784735656</v>
       </c>
       <c r="J4">
-        <v>0.2356999380470773</v>
+        <v>0.1742377818809482</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="N4">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="O4">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="P4">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="Q4">
-        <v>458.4699876413054</v>
+        <v>471.068854634014</v>
       </c>
       <c r="R4">
-        <v>458.4699876413054</v>
+        <v>2826.413127804084</v>
       </c>
       <c r="S4">
-        <v>0.04893518253600044</v>
+        <v>0.04437197705468001</v>
       </c>
       <c r="T4">
-        <v>0.04893518253600044</v>
+        <v>0.03837509499056421</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>67.7684089398664</v>
+        <v>69.292158</v>
       </c>
       <c r="H5">
-        <v>67.7684089398664</v>
+        <v>138.584316</v>
       </c>
       <c r="I5">
-        <v>0.2356999380470773</v>
+        <v>0.2302847784735656</v>
       </c>
       <c r="J5">
-        <v>0.2356999380470773</v>
+        <v>0.1742377818809482</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="N5">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="O5">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="P5">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="Q5">
-        <v>544.8070958566369</v>
+        <v>588.6737456380559</v>
       </c>
       <c r="R5">
-        <v>544.8070958566369</v>
+        <v>3532.042473828336</v>
       </c>
       <c r="S5">
-        <v>0.05815044692415301</v>
+        <v>0.05544968145779488</v>
       </c>
       <c r="T5">
-        <v>0.05815044692415301</v>
+        <v>0.04795564530553124</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>67.7684089398664</v>
+        <v>69.292158</v>
       </c>
       <c r="H6">
-        <v>67.7684089398664</v>
+        <v>138.584316</v>
       </c>
       <c r="I6">
-        <v>0.2356999380470773</v>
+        <v>0.2302847784735656</v>
       </c>
       <c r="J6">
-        <v>0.2356999380470773</v>
+        <v>0.1742377818809482</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="N6">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="O6">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="P6">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="Q6">
-        <v>407.3912223060283</v>
+        <v>435.101212499252</v>
       </c>
       <c r="R6">
-        <v>407.3912223060283</v>
+        <v>2610.607274995512</v>
       </c>
       <c r="S6">
-        <v>0.04348324724519816</v>
+        <v>0.04098403201052179</v>
       </c>
       <c r="T6">
-        <v>0.04348324724519816</v>
+        <v>0.03544503143418566</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>67.7684089398664</v>
+        <v>69.292158</v>
       </c>
       <c r="H7">
-        <v>67.7684089398664</v>
+        <v>138.584316</v>
       </c>
       <c r="I7">
-        <v>0.2356999380470773</v>
+        <v>0.2302847784735656</v>
       </c>
       <c r="J7">
-        <v>0.2356999380470773</v>
+        <v>0.1742377818809482</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="N7">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="O7">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="P7">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="Q7">
-        <v>465.6551485358315</v>
+        <v>606.36146976561</v>
       </c>
       <c r="R7">
-        <v>465.6551485358315</v>
+        <v>2425.44587906244</v>
       </c>
       <c r="S7">
-        <v>0.04970209677117881</v>
+        <v>0.05711576335095486</v>
       </c>
       <c r="T7">
-        <v>0.04970209677117881</v>
+        <v>0.03293103725279094</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.0270877577378</v>
+        <v>35.08748833333333</v>
       </c>
       <c r="H8">
-        <v>33.0270877577378</v>
+        <v>105.262465</v>
       </c>
       <c r="I8">
-        <v>0.1148688992430332</v>
+        <v>0.1166093640500485</v>
       </c>
       <c r="J8">
-        <v>0.1148688992430332</v>
+        <v>0.1323432473911474</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="N8">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="O8">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="P8">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="Q8">
-        <v>148.0063117870991</v>
+        <v>157.7301547168783</v>
       </c>
       <c r="R8">
-        <v>148.0063117870991</v>
+        <v>946.3809283012699</v>
       </c>
       <c r="S8">
-        <v>0.01579757907609951</v>
+        <v>0.01485727349002092</v>
       </c>
       <c r="T8">
-        <v>0.01579757907609951</v>
+        <v>0.01284930984205964</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.0270877577378</v>
+        <v>35.08748833333333</v>
       </c>
       <c r="H9">
-        <v>33.0270877577378</v>
+        <v>105.262465</v>
       </c>
       <c r="I9">
-        <v>0.1148688992430332</v>
+        <v>0.1166093640500485</v>
       </c>
       <c r="J9">
-        <v>0.1148688992430332</v>
+        <v>0.1323432473911474</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="N9">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="O9">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="P9">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="Q9">
-        <v>13.76114191537156</v>
+        <v>16.24888719304278</v>
       </c>
       <c r="R9">
-        <v>13.76114191537156</v>
+        <v>146.239984737385</v>
       </c>
       <c r="S9">
-        <v>0.001468807140456416</v>
+        <v>0.001530551728481261</v>
       </c>
       <c r="T9">
-        <v>0.001468807140456416</v>
+        <v>0.001985546009006795</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.0270877577378</v>
+        <v>35.08748833333333</v>
       </c>
       <c r="H10">
-        <v>33.0270877577378</v>
+        <v>105.262465</v>
       </c>
       <c r="I10">
-        <v>0.1148688992430332</v>
+        <v>0.1166093640500485</v>
       </c>
       <c r="J10">
-        <v>0.1148688992430332</v>
+        <v>0.1323432473911474</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="N10">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="O10">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="P10">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="Q10">
-        <v>223.4363880308064</v>
+        <v>238.5352602406705</v>
       </c>
       <c r="R10">
-        <v>223.4363880308064</v>
+        <v>2146.817342166035</v>
       </c>
       <c r="S10">
-        <v>0.02384867216657708</v>
+        <v>0.02246864973137392</v>
       </c>
       <c r="T10">
-        <v>0.02384867216657708</v>
+        <v>0.0291480104668983</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>33.0270877577378</v>
+        <v>35.08748833333333</v>
       </c>
       <c r="H11">
-        <v>33.0270877577378</v>
+        <v>105.262465</v>
       </c>
       <c r="I11">
-        <v>0.1148688992430332</v>
+        <v>0.1166093640500485</v>
       </c>
       <c r="J11">
-        <v>0.1148688992430332</v>
+        <v>0.1323432473911474</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="N11">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="O11">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="P11">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="Q11">
-        <v>265.512973483879</v>
+        <v>298.0868799354599</v>
       </c>
       <c r="R11">
-        <v>265.512973483879</v>
+        <v>2682.78191941914</v>
       </c>
       <c r="S11">
-        <v>0.02833975216121493</v>
+        <v>0.02807806983349295</v>
       </c>
       <c r="T11">
-        <v>0.02833975216121493</v>
+        <v>0.03642496915398347</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>33.0270877577378</v>
+        <v>35.08748833333333</v>
       </c>
       <c r="H12">
-        <v>33.0270877577378</v>
+        <v>105.262465</v>
       </c>
       <c r="I12">
-        <v>0.1148688992430332</v>
+        <v>0.1166093640500485</v>
       </c>
       <c r="J12">
-        <v>0.1148688992430332</v>
+        <v>0.1323432473911474</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="N12">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="O12">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="P12">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="Q12">
-        <v>198.5430359265535</v>
+        <v>220.3223158006811</v>
       </c>
       <c r="R12">
-        <v>198.5430359265535</v>
+        <v>1982.90084220613</v>
       </c>
       <c r="S12">
-        <v>0.02119165914066097</v>
+        <v>0.02075309510525193</v>
       </c>
       <c r="T12">
-        <v>0.02119165914066097</v>
+        <v>0.02692246488242485</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>33.0270877577378</v>
+        <v>35.08748833333333</v>
       </c>
       <c r="H13">
-        <v>33.0270877577378</v>
+        <v>105.262465</v>
       </c>
       <c r="I13">
-        <v>0.1148688992430332</v>
+        <v>0.1166093640500485</v>
       </c>
       <c r="J13">
-        <v>0.1148688992430332</v>
+        <v>0.1323432473911474</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="N13">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="O13">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="P13">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="Q13">
-        <v>226.9380924846847</v>
+        <v>307.0434174698917</v>
       </c>
       <c r="R13">
-        <v>226.9380924846847</v>
+        <v>1842.26050481935</v>
       </c>
       <c r="S13">
-        <v>0.02422242955802432</v>
+        <v>0.02892172416142756</v>
       </c>
       <c r="T13">
-        <v>0.02422242955802432</v>
+        <v>0.02501294703677437</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>56.9182575101004</v>
+        <v>64.44625533333334</v>
       </c>
       <c r="H14">
-        <v>56.9182575101004</v>
+        <v>193.338766</v>
       </c>
       <c r="I14">
-        <v>0.19796288534356</v>
+        <v>0.214179960059658</v>
       </c>
       <c r="J14">
-        <v>0.19796288534356</v>
+        <v>0.2430788613874581</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="N14">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="O14">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="P14">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="Q14">
-        <v>255.0712745008716</v>
+        <v>289.7077650038913</v>
       </c>
       <c r="R14">
-        <v>255.0712745008716</v>
+        <v>1738.246590023348</v>
       </c>
       <c r="S14">
-        <v>0.02722524857429921</v>
+        <v>0.0272888053940705</v>
       </c>
       <c r="T14">
-        <v>0.02722524857429921</v>
+        <v>0.02360071758547042</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>56.9182575101004</v>
+        <v>64.44625533333334</v>
       </c>
       <c r="H15">
-        <v>56.9182575101004</v>
+        <v>193.338766</v>
       </c>
       <c r="I15">
-        <v>0.19796288534356</v>
+        <v>0.214179960059658</v>
       </c>
       <c r="J15">
-        <v>0.19796288534356</v>
+        <v>0.2430788613874581</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="N15">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="O15">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="P15">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="Q15">
-        <v>23.71569134153064</v>
+        <v>29.84482454193045</v>
       </c>
       <c r="R15">
-        <v>23.71569134153064</v>
+        <v>268.603420877374</v>
       </c>
       <c r="S15">
-        <v>0.002531314406720153</v>
+        <v>0.002811210838390818</v>
       </c>
       <c r="T15">
-        <v>0.002531314406720153</v>
+        <v>0.003646912650369708</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>56.9182575101004</v>
+        <v>64.44625533333334</v>
       </c>
       <c r="H16">
-        <v>56.9182575101004</v>
+        <v>193.338766</v>
       </c>
       <c r="I16">
-        <v>0.19796288534356</v>
+        <v>0.214179960059658</v>
       </c>
       <c r="J16">
-        <v>0.19796288534356</v>
+        <v>0.2430788613874581</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="N16">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="O16">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="P16">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="Q16">
-        <v>385.0660392569608</v>
+        <v>438.1249561505149</v>
       </c>
       <c r="R16">
-        <v>385.0660392569608</v>
+        <v>3943.124605354634</v>
       </c>
       <c r="S16">
-        <v>0.04110034991908034</v>
+        <v>0.04126885127333913</v>
       </c>
       <c r="T16">
-        <v>0.04110034991908034</v>
+        <v>0.05353703597027868</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>56.9182575101004</v>
+        <v>64.44625533333334</v>
       </c>
       <c r="H17">
-        <v>56.9182575101004</v>
+        <v>193.338766</v>
       </c>
       <c r="I17">
-        <v>0.19796288534356</v>
+        <v>0.214179960059658</v>
       </c>
       <c r="J17">
-        <v>0.19796288534356</v>
+        <v>0.2430788613874581</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="N17">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="O17">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="P17">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="Q17">
-        <v>457.5800296981142</v>
+        <v>547.505224464504</v>
       </c>
       <c r="R17">
-        <v>457.5800296981142</v>
+        <v>4927.547020180536</v>
       </c>
       <c r="S17">
-        <v>0.04884019212098227</v>
+        <v>0.05157184351771881</v>
       </c>
       <c r="T17">
-        <v>0.04884019212098227</v>
+        <v>0.06690284697227286</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>56.9182575101004</v>
+        <v>64.44625533333334</v>
       </c>
       <c r="H18">
-        <v>56.9182575101004</v>
+        <v>193.338766</v>
       </c>
       <c r="I18">
-        <v>0.19796288534356</v>
+        <v>0.214179960059658</v>
       </c>
       <c r="J18">
-        <v>0.19796288534356</v>
+        <v>0.2430788613874581</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="N18">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="O18">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="P18">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="Q18">
-        <v>342.1653077194819</v>
+        <v>404.6726880200459</v>
       </c>
       <c r="R18">
-        <v>342.1653077194819</v>
+        <v>3642.054192180412</v>
       </c>
       <c r="S18">
-        <v>0.036521303993926</v>
+        <v>0.03811783999481722</v>
       </c>
       <c r="T18">
-        <v>0.036521303993926</v>
+        <v>0.04944930881151563</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>56.9182575101004</v>
+        <v>64.44625533333334</v>
       </c>
       <c r="H19">
-        <v>56.9182575101004</v>
+        <v>193.338766</v>
       </c>
       <c r="I19">
-        <v>0.19796288534356</v>
+        <v>0.214179960059658</v>
       </c>
       <c r="J19">
-        <v>0.19796288534356</v>
+        <v>0.2430788613874581</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="N19">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="O19">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="P19">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="Q19">
-        <v>391.1008103906469</v>
+        <v>563.9559689396567</v>
       </c>
       <c r="R19">
-        <v>391.1008103906469</v>
+        <v>3383.73581363794</v>
       </c>
       <c r="S19">
-        <v>0.04174447632855201</v>
+        <v>0.05312140904132152</v>
       </c>
       <c r="T19">
-        <v>0.04174447632855201</v>
+        <v>0.04594203939755082</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>55.3730589412771</v>
+        <v>56.56647866666666</v>
       </c>
       <c r="H20">
-        <v>55.3730589412771</v>
+        <v>169.699436</v>
       </c>
       <c r="I20">
-        <v>0.1925886525315537</v>
+        <v>0.1879923989202791</v>
       </c>
       <c r="J20">
-        <v>0.1925886525315537</v>
+        <v>0.2133578616146428</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="N20">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="O20">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="P20">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="Q20">
-        <v>248.146681487167</v>
+        <v>254.2854976429346</v>
       </c>
       <c r="R20">
-        <v>248.146681487167</v>
+        <v>1525.712985857608</v>
       </c>
       <c r="S20">
-        <v>0.02648614627262737</v>
+        <v>0.02395223151722982</v>
       </c>
       <c r="T20">
-        <v>0.02648614627262737</v>
+        <v>0.02071508237230402</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>55.3730589412771</v>
+        <v>56.56647866666666</v>
       </c>
       <c r="H21">
-        <v>55.3730589412771</v>
+        <v>169.699436</v>
       </c>
       <c r="I21">
-        <v>0.1925886525315537</v>
+        <v>0.1879923989202791</v>
       </c>
       <c r="J21">
-        <v>0.1925886525315537</v>
+        <v>0.2133578616146428</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="N21">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="O21">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="P21">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="Q21">
-        <v>23.07186537210272</v>
+        <v>26.19572886011155</v>
       </c>
       <c r="R21">
-        <v>23.07186537210272</v>
+        <v>235.761559741004</v>
       </c>
       <c r="S21">
-        <v>0.002462595096438884</v>
+        <v>0.002467487010608151</v>
       </c>
       <c r="T21">
-        <v>0.002462595096438884</v>
+        <v>0.003201008430502781</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>55.3730589412771</v>
+        <v>56.56647866666666</v>
       </c>
       <c r="H22">
-        <v>55.3730589412771</v>
+        <v>169.699436</v>
       </c>
       <c r="I22">
-        <v>0.1925886525315537</v>
+        <v>0.1879923989202791</v>
       </c>
       <c r="J22">
-        <v>0.1925886525315537</v>
+        <v>0.2133578616146428</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="N22">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="O22">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="P22">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="Q22">
-        <v>374.6123901329213</v>
+        <v>384.5558730641071</v>
       </c>
       <c r="R22">
-        <v>374.6123901329213</v>
+        <v>3461.002857576964</v>
       </c>
       <c r="S22">
-        <v>0.03998457082373769</v>
+        <v>0.03622295171498886</v>
       </c>
       <c r="T22">
-        <v>0.03998457082373769</v>
+        <v>0.04699111821820567</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>55.3730589412771</v>
+        <v>56.56647866666666</v>
       </c>
       <c r="H23">
-        <v>55.3730589412771</v>
+        <v>169.699436</v>
       </c>
       <c r="I23">
-        <v>0.1925886525315537</v>
+        <v>0.1879923989202791</v>
       </c>
       <c r="J23">
-        <v>0.1925886525315537</v>
+        <v>0.2133578616146428</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="N23">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="O23">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="P23">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="Q23">
-        <v>445.1577940580618</v>
+        <v>480.5623296399839</v>
       </c>
       <c r="R23">
-        <v>445.1577940580618</v>
+        <v>4325.060966759856</v>
       </c>
       <c r="S23">
-        <v>0.04751429427611228</v>
+        <v>0.04526620780458037</v>
       </c>
       <c r="T23">
-        <v>0.04751429427611228</v>
+        <v>0.058722705398818</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>55.3730589412771</v>
+        <v>56.56647866666666</v>
       </c>
       <c r="H24">
-        <v>55.3730589412771</v>
+        <v>169.699436</v>
       </c>
       <c r="I24">
-        <v>0.1925886525315537</v>
+        <v>0.1879923989202791</v>
       </c>
       <c r="J24">
-        <v>0.1925886525315537</v>
+        <v>0.2133578616146428</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="N24">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="O24">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="P24">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="Q24">
-        <v>332.8763138725549</v>
+        <v>355.1937789941503</v>
       </c>
       <c r="R24">
-        <v>332.8763138725549</v>
+        <v>3196.744010947352</v>
       </c>
       <c r="S24">
-        <v>0.03552983536625479</v>
+        <v>0.03345721131094177</v>
       </c>
       <c r="T24">
-        <v>0.03552983536625479</v>
+        <v>0.04340319321115368</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>55.3730589412771</v>
+        <v>56.56647866666666</v>
       </c>
       <c r="H25">
-        <v>55.3730589412771</v>
+        <v>169.699436</v>
       </c>
       <c r="I25">
-        <v>0.1925886525315537</v>
+        <v>0.1879923989202791</v>
       </c>
       <c r="J25">
-        <v>0.1925886525315537</v>
+        <v>0.2133578616146428</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="N25">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="O25">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="P25">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="Q25">
-        <v>380.4833312386538</v>
+        <v>495.0016586838733</v>
       </c>
       <c r="R25">
-        <v>380.4833312386538</v>
+        <v>2970.00995210324</v>
       </c>
       <c r="S25">
-        <v>0.04061121069638274</v>
+        <v>0.04662630956193007</v>
       </c>
       <c r="T25">
-        <v>0.04061121069638274</v>
+        <v>0.04032475398365867</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>36.4071864609122</v>
+        <v>37.47905366666667</v>
       </c>
       <c r="H26">
-        <v>36.4071864609122</v>
+        <v>112.437161</v>
       </c>
       <c r="I26">
-        <v>0.126624952947026</v>
+        <v>0.1245574653776436</v>
       </c>
       <c r="J26">
-        <v>0.126624952947026</v>
+        <v>0.1413637711617457</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="N26">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="O26">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="P26">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="Q26">
-        <v>163.1537551887957</v>
+        <v>168.4810516308596</v>
       </c>
       <c r="R26">
-        <v>163.1537551887957</v>
+        <v>1010.886309785158</v>
       </c>
       <c r="S26">
-        <v>0.01741435428014119</v>
+        <v>0.01586994615239643</v>
       </c>
       <c r="T26">
-        <v>0.01741435428014119</v>
+        <v>0.0137251195803798</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>36.4071864609122</v>
+        <v>37.47905366666667</v>
       </c>
       <c r="H27">
-        <v>36.4071864609122</v>
+        <v>112.437161</v>
       </c>
       <c r="I27">
-        <v>0.126624952947026</v>
+        <v>0.1245574653776436</v>
       </c>
       <c r="J27">
-        <v>0.126624952947026</v>
+        <v>0.1413637711617457</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="N27">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="O27">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="P27">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="Q27">
-        <v>15.16950157104386</v>
+        <v>17.35641232983656</v>
       </c>
       <c r="R27">
-        <v>15.16950157104386</v>
+        <v>156.207710968529</v>
       </c>
       <c r="S27">
-        <v>0.001619129601434129</v>
+        <v>0.001634874227143321</v>
       </c>
       <c r="T27">
-        <v>0.001619129601434129</v>
+        <v>0.002120880945431065</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>36.4071864609122</v>
+        <v>37.47905366666667</v>
       </c>
       <c r="H28">
-        <v>36.4071864609122</v>
+        <v>112.437161</v>
       </c>
       <c r="I28">
-        <v>0.126624952947026</v>
+        <v>0.1245574653776436</v>
       </c>
       <c r="J28">
-        <v>0.126624952947026</v>
+        <v>0.1413637711617457</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="N28">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="O28">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="P28">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="Q28">
-        <v>246.3035887650873</v>
+        <v>254.7938380490821</v>
       </c>
       <c r="R28">
-        <v>246.3035887650873</v>
+        <v>2293.144542441739</v>
       </c>
       <c r="S28">
-        <v>0.02628942220951093</v>
+        <v>0.02400011426009353</v>
       </c>
       <c r="T28">
-        <v>0.02628942220951093</v>
+        <v>0.03113474062854531</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>36.4071864609122</v>
+        <v>37.47905366666667</v>
       </c>
       <c r="H29">
-        <v>36.4071864609122</v>
+        <v>112.437161</v>
       </c>
       <c r="I29">
-        <v>0.126624952947026</v>
+        <v>0.1245574653776436</v>
       </c>
       <c r="J29">
-        <v>0.126624952947026</v>
+        <v>0.1413637711617457</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="N29">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="O29">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="P29">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="Q29">
-        <v>292.6864277082399</v>
+        <v>318.4044997548839</v>
       </c>
       <c r="R29">
-        <v>292.6864277082399</v>
+        <v>2865.640497793956</v>
       </c>
       <c r="S29">
-        <v>0.03124013381857023</v>
+        <v>0.02999187277666061</v>
       </c>
       <c r="T29">
-        <v>0.03124013381857023</v>
+        <v>0.03890769726118871</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>36.4071864609122</v>
+        <v>37.47905366666667</v>
       </c>
       <c r="H30">
-        <v>36.4071864609122</v>
+        <v>112.437161</v>
       </c>
       <c r="I30">
-        <v>0.126624952947026</v>
+        <v>0.1245574653776436</v>
       </c>
       <c r="J30">
-        <v>0.126624952947026</v>
+        <v>0.1413637711617457</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="N30">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="O30">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="P30">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="Q30">
-        <v>218.8625707030469</v>
+        <v>235.3394982112002</v>
       </c>
       <c r="R30">
-        <v>218.8625707030469</v>
+        <v>2118.055483900802</v>
       </c>
       <c r="S30">
-        <v>0.02336048189926705</v>
+        <v>0.02216762732658334</v>
       </c>
       <c r="T30">
-        <v>0.02336048189926705</v>
+        <v>0.02875750172202455</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>36.4071864609122</v>
+        <v>37.47905366666667</v>
       </c>
       <c r="H31">
-        <v>36.4071864609122</v>
+        <v>112.437161</v>
       </c>
       <c r="I31">
-        <v>0.126624952947026</v>
+        <v>0.1245574653776436</v>
       </c>
       <c r="J31">
-        <v>0.126624952947026</v>
+        <v>0.1413637711617457</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="N31">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="O31">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="P31">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="Q31">
-        <v>250.1636689489202</v>
+        <v>327.9715154309984</v>
       </c>
       <c r="R31">
-        <v>250.1636689489202</v>
+        <v>1967.82909258599</v>
       </c>
       <c r="S31">
-        <v>0.02670143113810245</v>
+        <v>0.03089303063476635</v>
       </c>
       <c r="T31">
-        <v>0.02670143113810245</v>
+        <v>0.0267178310241763</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>38.0258423610902</v>
+        <v>38.0262565</v>
       </c>
       <c r="H32">
-        <v>38.0258423610902</v>
+        <v>76.052513</v>
       </c>
       <c r="I32">
-        <v>0.1322546718877499</v>
+        <v>0.1263760331188052</v>
       </c>
       <c r="J32">
-        <v>0.1322546718877499</v>
+        <v>0.09561847656405779</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="N32">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="O32">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="P32">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="Q32">
-        <v>170.4075370418942</v>
+        <v>170.9409138684535</v>
       </c>
       <c r="R32">
-        <v>170.4075370418942</v>
+        <v>683.763655473814</v>
       </c>
       <c r="S32">
-        <v>0.01818859283146687</v>
+        <v>0.01610165102885019</v>
       </c>
       <c r="T32">
-        <v>0.01818859283146687</v>
+        <v>0.009283672995918046</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>38.0258423610902</v>
+        <v>38.0262565</v>
       </c>
       <c r="H33">
-        <v>38.0258423610902</v>
+        <v>76.052513</v>
       </c>
       <c r="I33">
-        <v>0.1322546718877499</v>
+        <v>0.1263760331188052</v>
       </c>
       <c r="J33">
-        <v>0.1322546718877499</v>
+        <v>0.09561847656405779</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="N33">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="O33">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="P33">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="Q33">
-        <v>15.8439344401449</v>
+        <v>17.60981995554284</v>
       </c>
       <c r="R33">
-        <v>15.8439344401449</v>
+        <v>105.658919733257</v>
       </c>
       <c r="S33">
-        <v>0.001691115765081462</v>
+        <v>0.001658743768172638</v>
       </c>
       <c r="T33">
-        <v>0.001691115765081462</v>
+        <v>0.001434564197808662</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>38.0258423610902</v>
+        <v>38.0262565</v>
       </c>
       <c r="H34">
-        <v>38.0258423610902</v>
+        <v>76.052513</v>
       </c>
       <c r="I34">
-        <v>0.1322546718877499</v>
+        <v>0.1263760331188052</v>
       </c>
       <c r="J34">
-        <v>0.1322546718877499</v>
+        <v>0.09561847656405779</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="N34">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="O34">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="P34">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="Q34">
-        <v>257.2541948389089</v>
+        <v>258.5138868885311</v>
       </c>
       <c r="R34">
-        <v>257.2541948389089</v>
+        <v>1551.083321331187</v>
       </c>
       <c r="S34">
-        <v>0.02745824442589895</v>
+        <v>0.02435052146728316</v>
       </c>
       <c r="T34">
-        <v>0.02745824442589895</v>
+        <v>0.02105954335154434</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>38.0258423610902</v>
+        <v>38.0262565</v>
       </c>
       <c r="H35">
-        <v>38.0258423610902</v>
+        <v>76.052513</v>
       </c>
       <c r="I35">
-        <v>0.1322546718877499</v>
+        <v>0.1263760331188052</v>
       </c>
       <c r="J35">
-        <v>0.1322546718877499</v>
+        <v>0.09561847656405779</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="N35">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="O35">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="P35">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="Q35">
-        <v>305.6992051064771</v>
+        <v>323.053278935958</v>
       </c>
       <c r="R35">
-        <v>305.6992051064771</v>
+        <v>1938.319673615748</v>
       </c>
       <c r="S35">
-        <v>0.03262906363829329</v>
+        <v>0.03042976104103154</v>
       </c>
       <c r="T35">
-        <v>0.03262906363829329</v>
+        <v>0.02631717241381272</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>38.0258423610902</v>
+        <v>38.0262565</v>
       </c>
       <c r="H36">
-        <v>38.0258423610902</v>
+        <v>76.052513</v>
       </c>
       <c r="I36">
-        <v>0.1322546718877499</v>
+        <v>0.1263760331188052</v>
       </c>
       <c r="J36">
-        <v>0.1322546718877499</v>
+        <v>0.09561847656405779</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="N36">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="O36">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="P36">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="Q36">
-        <v>228.593154849585</v>
+        <v>238.7755091991444</v>
       </c>
       <c r="R36">
-        <v>228.593154849585</v>
+        <v>1432.653055194866</v>
       </c>
       <c r="S36">
-        <v>0.02439908404167227</v>
+        <v>0.02249127980162362</v>
       </c>
       <c r="T36">
-        <v>0.02439908404167227</v>
+        <v>0.01945157858941133</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>38.0258423610902</v>
+        <v>38.0262565</v>
       </c>
       <c r="H37">
-        <v>38.0258423610902</v>
+        <v>76.052513</v>
       </c>
       <c r="I37">
-        <v>0.1322546718877499</v>
+        <v>0.1263760331188052</v>
       </c>
       <c r="J37">
-        <v>0.1322546718877499</v>
+        <v>0.09561847656405779</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="N37">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="O37">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="P37">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="Q37">
-        <v>261.2858933808765</v>
+        <v>332.7599752489175</v>
       </c>
       <c r="R37">
-        <v>261.2858933808765</v>
+        <v>1331.03990099567</v>
       </c>
       <c r="S37">
-        <v>0.02788857118533705</v>
+        <v>0.03134407601184407</v>
       </c>
       <c r="T37">
-        <v>0.02788857118533705</v>
+        <v>0.01807194501556271</v>
       </c>
     </row>
   </sheetData>
